--- a/learnjunit/src/main/resources/cases.xlsx
+++ b/learnjunit/src/main/resources/cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Myjob\learnjunit\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC11F80A-E959-40C2-97DF-9530BC1CE121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01164E9D-C218-482B-84FB-F10EE3155EC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,13 +44,13 @@
   </si>
   <si>
     <t>{"username":"test072901",
-"account":"test072901",
+"account":"test072901a",
 "phone":"13300001111"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>{"username":"test072902",
-"account":"test072902",
+"account":"test072902a",
 "phone":"13300002222"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -394,7 +394,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
